--- a/туры для телеграм.xlsx
+++ b/туры для телеграм.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\telegram_bot_peshehod_chat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tropin\telegram_bot_peshehod_chat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="153">
   <si>
     <t>название</t>
   </si>
@@ -105,10 +105,6 @@
   </si>
   <si>
     <t>От мифов к истории - удивительные истории Петербурга</t>
-  </si>
-  <si>
-    <t>За 2 часа мы откроем тайны Дворцовой, Сенатской и Исаакиевской площадей, прогуляемся по «бульвару» Онегина и найдем место убийства Григория Распутина. Мы узнаем, что за дом хотели разыграть в лотерею, и почему «Медный всадник» смотрит на Петербург влюбленными глазами. 
-Закончим мы экскурсию у Новой Голландии, где вы сможете самостоятельно перекусить в локальных кафе. Если, конечно, не забоитесь, ведь построенный еще Петром I комплекс долгое время был тюрьмой!</t>
   </si>
   <si>
     <t>Понедельник, среда, пятница, воскресенье 15.00-17.00</t>
@@ -173,16 +169,6 @@
     <t>Я всегда буду против: неформальный Петербург</t>
   </si>
   <si>
-    <t>Как связаны Радищев и Кинчев, Гребенщиков и Достоевский, Пушкин и Довлатов? Все они выступали против культурных норм, созидая новое, и все они творили в Петербурге. Санкт-Петербург стал центром неформальной культуры с момента его основания и несет это звание до сих пор.
-За 2 часа нашей экскурсии мы изучим с вами природу культурного протеста, ощутим связь времен и найдем закутки, где занимались творчеством на протяжении 2 веков.</t>
-  </si>
-  <si>
-    <t>среда, суббота 15.00-17.00</t>
-  </si>
-  <si>
-    <t>на улице у Кафе "Пирожковая" по адресу ул.Восстания, 1.</t>
-  </si>
-  <si>
     <t> а) На метро: кафе находится прямо у выхода со ст.м."Площадь Восстания" (красная ветка, выход на Невский проспект и ул.Восстания). Вам нужно выйти из метро и повернуть направо - через 20 метров будет "Пирожковая"
  б) На наземном транспорте до остановки "Площадь Восстания"
  в) На такси по адресу ул.Восстания, 1 (59°55'54.9"N 30°21'40.0"E)</t>
@@ -197,23 +183,6 @@
     <t>Каменный остров: добро пожаловать избранным или посторонним вход запрещен</t>
   </si>
   <si>
-    <t>Каменный остров впечатляет не только своим статусом. Пожалуй, это лучший музей под открытым небом, посвященный шедеврам усадебной архитектуры XIX-XX вв. Не верите? А если мы скажем, что именно на Каменном острове появилось ПЕРВОЕ в России здание в стиле модерн?
-Спрятанный от посторонних глаз, закрытый заборами и огороженный решетками, Каменный остров и по сей день полон загадок и тайн. Ведь некоторыми из особняков - шедевров архитектуры владеют очень известные личности. А аренду здания на Каменном острове не может потянуть даже посольство Дании!</t>
-  </si>
-  <si>
-    <t>вторник, суббота 15.00-17.00</t>
-  </si>
-  <si>
-    <t>автобусная остановки под названием "Каменноостровский мост", на пересечении набережной реки Малой Невки и Каменноостровского проспекта.*
-Ссылка на карту: https://goo.gl/maps/9QCrhQWhQEbaMNMo9 </t>
-  </si>
-  <si>
-    <t>*На остановку ходят автобусы 46, 1, 25, троллейбус 34.
-Ближайшая станция метро - "Черная речка" (синяя ветка), от нее нужно пройти 10-15 минут пешком.
-Легче всего добраться до места встречи на такси: 59.978723654494715, 30.29976093612008
-Весь Каменный остров находится в отделении от транспортных узлов, настолько он закрытый.</t>
-  </si>
-  <si>
     <t>Санкт-Петербург, набережная реки Малой Невки</t>
   </si>
   <si>
@@ -223,53 +192,12 @@
     <t>С материка на Ваську – дворы Петербурга</t>
   </si>
   <si>
-    <t>Васильевский остров – самый странный спальный район Петербурга. Ведь он строился как центр новой столицы, первый в Петербурге был обрамлен гранитом, принял дворцы новой знати и…должен был стать полностью водоходным. Вместо улиц так называемой «Васьки» Петр планировал сделать каналы, как в своем любимом Амстердаме.
-Прогуливаясь по пешеходным ныне линиям – бывшим каналам, пробираясь через разношерстные проходные дворы, мы узнаем, почему уже к XVIII веку Васильевский остров превратился в место обитания торговцев, профессуры, маргиналов и иностранцев, и стал первым спальным районом разрастающейся столицы.</t>
-  </si>
-  <si>
-    <t>вторник, четверг, воскресенье 15.00-17.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">памятник Василию Корчмину (в народе его прозвали Мюнгхаузеном). 7-я линия В.О., 34. </t>
-  </si>
-  <si>
-    <t>Место встречи находится в трех минутах ходьбы от ст.м. Василеостровская.
-Вам нужно выйти из метро и повернуть направо на пешеходную 6 и 7 линию В.О. Дойти по ней до кафе Market Place, прямо за ним притаился памятник Василию.
- До памятника Василию вы можете добраться:
-а) На метро: до станции метро "Василеостровская”, зеленая ветка 
-Б) На автобусах 7,24
-В) На троллейбусах 1, 11</t>
-  </si>
-  <si>
-    <t>стрелка Васильевского острова (гид сориентирует по транспорту)</t>
-  </si>
-  <si>
     <t>Забронировать можно на сайте https://peshehodtour.ru/spb/tour/excursia-dvory-Vasil'evslogo-ostrova</t>
   </si>
   <si>
     <t>Обзорная экскурсия «Гуляй как петербуржец!»</t>
   </si>
   <si>
-    <t>Мы познакомим вас с историей Петербурга и поймем причины его особенного статуса среди городов России.
-В компании гида-петербуржца вы научитесь ориентироваться в центре города и решите для себя, что вам еще было бы интересно посетить. А мы расскажем вам, как пройти без очереди в Эрмитаж и где недорого и атмосферно пообедать.
-Вы узнаете историю и легенды всех главных достопримечательностях и найдете много скрытых, но любимых петербуржцами памятников.</t>
-  </si>
-  <si>
-    <t>вторник,четверг,пятница, суббота, воскресенье 11.00-13.00</t>
-  </si>
-  <si>
-    <t>Малая Садовая улица, дом 3 — Фонтан «Шар» (Пересечение Невского проспекта и Малой Садовой улицы, ближайшее метро — «Гостиный Двор» и «Невский проспект»; 
-координаты для GPS: 59°56'03.3"N 30°20'14.6"E)*</t>
-  </si>
-  <si>
-    <t> *Место встречи находится в самом центре Санкт-Петербурга — на Невском проспекте.
- До фонтана «Шар» вы можете добраться:
- а) На метро: до станции метро «Гостиный двор», «Невский проспект», выход к Гостиному Двору и Садовой улице
- б) На автобусах: 3, 7, 22, 24, 27, 191
- в) На троллейбусах: 1, 5, 10, 11, 22
- Остановка «Станция метро Гостиный двор» или «Дворец творчества юных (Аничков дворец)»</t>
-  </si>
-  <si>
     <t>Зимняя канавка (рядом с Эрмитажем, ближайшее метро «Адмиралтейская»)</t>
   </si>
   <si>
@@ -277,16 +205,6 @@
   </si>
   <si>
     <t>Как они выжили: быт блокадного Ленинграда</t>
-  </si>
-  <si>
-    <t>О Блокаде Ленинграда слышал каждый. Это самая долгая осада города за всю историю человечества, унесшая жизни миллионов солдат и мирных жителей. Она изменила историю и стала символом стойкости и смелости ленинградцев. Однако мы забываем, что жизнь в окруженном городе не замирала, наравне с поджидающей за углом смертью в Ленинграде оставалось время для смеха, чтения книг и даже...оказания парикмахерских услуг! О каждодневном, порой удивительном быте блокадного Ленинграда мы и расскажем на нашей экскурсии.
-За 2 часа неспешной прогулки по самому центру Петербурга вы узнаете о распорядке дня маленьких и взрослых ленинградцев, об обязательных ритуалах и обычных для них условиях жизни.</t>
-  </si>
-  <si>
-    <t>Среда, пятница, суббота, воскресенье 11.00-13.00</t>
-  </si>
-  <si>
-    <t>памятник А.С.Пушкину в центре площади Искусств. Ближайшее метро - “Невский проспект” и “Гостиный двор”. GPS: 59.937278, 30.331652</t>
   </si>
   <si>
     <t>Место встречи находится в самом центре Санкт-Петербурга — на площади Искусств перед Русским музеем.
@@ -312,16 +230,6 @@
     <t>Открыть Петербург детям! Обзорная экскурсия</t>
   </si>
   <si>
-    <t>Вас и ваших детей ждет легкое игровое знакомство с Санкт-Петербургом и его историей. Через байки, анекдоты и загадки мы заложим базовые знания об истории Петербурга и расскажем об основных архитектурных стилях, достопримечательностях и самых важных личностях для нашего города и всей страны.
-Что значит название «Санкт-Петербург»? Кто такой Петр Первый? Для чего построен наш город и почему Зимний Дворец так не похож на остальные здание Петербурга? Откуда взялись Эрмитажные коты и как Атланты могут исполнить желания? Где находится улица миллионеров и кто стал самым знаменитым полководцем в истории? В каком замке до сих пор бродят призраки и кто такие «Чижики-Пыжики»?</t>
-  </si>
-  <si>
-    <t>Среда, пятница,суббота 15.00-16.30, воскресенье 11.00-12.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дворцовая площадь, Александровская колонна. </t>
-  </si>
-  <si>
     <t>До Дворцовой площади вы можете добраться:
 А) На автобусах: 7, 24, 191 (остановка “Дворцовая площадь”)
 Б) На троллейбусах: 1, 7, 10, 11 (остановка “Дворцовая площадь”)
@@ -334,60 +242,19 @@
     <t>Марсово поле или Инженерный замок в зависимости от погоды</t>
   </si>
   <si>
-    <t>1300₽
-Для детей до 12 лет
-500₽
-Для взрослых</t>
-  </si>
-  <si>
     <t>Забронировать экскурсию можно по ссылке https://peshehodtour.ru/spb/tour/detskaya-excursia-po-peterburgu</t>
   </si>
   <si>
     <t>Коломна: Петербург полусумасшедших</t>
   </si>
   <si>
-    <t>За 2,5 часа мы изучим прекрасный (и ужасный) район Коломны, увидим места, которые не без причины вдохновляли Гоголя и Достоевского. Разными органами чувств (вкусом, обонянием) мы приблизим себя к атмосфере рынка XIX века.
-Мы найдем "клоаку" Петербурга и местных гаргулий, место, где видно 7 (или 8?) мостов, переулок, состоявший из одного кабака, здания, где раньше находились дома терпимости и биржи труда для самых бедных и дом, где совершилось самое страшное преступление в истории русской литературы.</t>
-  </si>
-  <si>
-    <t>Среда 11.00-13.00, Пятница 18.00-20.30, воскресенье 15.00-17.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> выход со ст.м. «Спасская» (оранжевая ветка).</t>
-  </si>
-  <si>
-    <t>Добраться до места встречи можно:
-А) На метро до станций «Спасская» (оранжевая ветка), «Сенная» (синяя ветка), «Садовая» (фиолетовая ветка). Все три станции связаны подземным переходом, следуйте за указателями. Также с каждой станции можно подняться на Сенную площадь и дойти до места встречи поверху.
-Б) На автобусах 49, 50, 71, 181, 262 и трамвае 3 до остановок ст.м. «Сенная площадь» или «Сенная площадь»</t>
-  </si>
-  <si>
     <t>Мариинский театр</t>
   </si>
   <si>
-    <t>850₽
-Для взрослых от 16 лет
-750₽
-Для пенсионеров</t>
-  </si>
-  <si>
     <t>Забронировать можно по ссылке https://peshehodtour.ru/spb/tour/kolomna-peterburg-polusumasshedshikh</t>
   </si>
   <si>
     <t>Из бурга в бурх и обратно: экскурсия по Петроградской стороне</t>
-  </si>
-  <si>
-    <t>За 2,5 часа мы пройдем от "бурга" - города в стиле модерн с историями о богатых меценатах и ярких художниках, в "бурх" - город Петра I c его крепостью и даже домиком. Скачки во времени - из бурга в бурх - будут сопровождать всю нашу экскурсию. Скачки из богатства парадных дворов-курдонеров и образцовых особняков в обшарпанные черные лестницы и потаенные дворы-колодцы дополнят атмосферу двоякости.
-Мы увидим Петербург парадный, стройный, холодный, и полубезумный петровский проект, в который не верил никто, кроме самого царя. А завершим мы нашу экскурсию у знаменитого крейсера "Аврора", символа Ленинграда, до него редко доходят пешеходные экскурсии. Чем не еще один скачок в "град" из "бурга" и "бурха"? Вы с нами?</t>
-  </si>
-  <si>
-    <t>Понедельник, четверг, суббота 11.00-13.30</t>
-  </si>
-  <si>
-    <t>м. Петроградская, у памятника А.С.Попову  (59.967933, 30.310639) *</t>
-  </si>
-  <si>
-    <t>Ближайшая станция метро - " Петроградская " (синяя ветка), от нее нужно пройти 5-7 минут пешком, повернув направо и пройдя чуть дальше McDonalds - в центре сквера за рестораном и стоит памятник А.Попову.
-Ссылка на карту: https://goo.gl/maps/H2ZVcpAgM88xBfwW9 </t>
   </si>
   <si>
     <t>Аврора</t>
@@ -405,10 +272,6 @@
     <t>Индивидуальная экскурсия по Петропавловской крепости</t>
   </si>
   <si>
-    <t>На территории Петропавловской крепости мы найдем и посетим необычные музеи, копию знаменитого ботика Петра Первого, Монетный двор, самые необычные памятники Петербурга. Мы сможем взобраться на бастионы первой крепости России, построенной по западным правилам, и, возможно, услышим знаменитый залп пушки, который извещает жителей города о наступлении полудня. Мы загадаем желания у нескольких зайцев и выпросим богатства у скульптуры Петра.
-Особенно впечатлит вас удивительный вид, открывающийся на самую широкий участок Невы с пляжа Петропавловской крепости.</t>
-  </si>
-  <si>
     <t>Мы встречаемся на Иоанновском мосту Петропавловской крепости. Это главный мост, через который можно попасть в Крепость, прямо перед ним находится Бургер Кинг :)</t>
   </si>
   <si>
@@ -421,12 +284,6 @@
     <t>Территория Петропавловской крепости</t>
   </si>
   <si>
-    <t>5400₽
-За экскурсию для 1-3 чел., далее: + 1000₽ с чел.
-+400₽/ 250₽
-Ваучеры на проход в каждый музей</t>
-  </si>
-  <si>
     <t>Забронировать экскурсию можно по ссылке https://peshehodtour.ru/spb/tour/individual'naya-excursia-po-Petropavlovskoy-kreposti</t>
   </si>
   <si>
@@ -451,11 +308,6 @@
     <t>Русский музей для детей и взрослых</t>
   </si>
   <si>
-    <t>Мы предлагаем вам открыть Русский музей как сундучок с сокровищами: легко, вспоминая былины, детские сказки и даже частушки, через образы, с помощью диалога и конечно же юмора!
-Мы построим маршрут по музею, исходя из ваших пожеланий, ведь если одни Гости хотят получить первое впечатление о Музее, других может интересовать искусство начала XX века или иконопись.
-Мы учтем все ваши желания и создадим новый тур специально для вас. Поэтому экскурсия понравится и взрослым, и детям от 5 лет.</t>
-  </si>
-  <si>
     <t>в Русском музее</t>
   </si>
   <si>
@@ -465,41 +317,16 @@
     <t>Индивидуальная обзорная прогулка по Петербургу</t>
   </si>
   <si>
-    <t>Пройтись по тайным улочкам в компании местного жителя и неожиданно выйти к самым открыточным достопримечательностям города, перекусить в знаменитой Пышечной, узнать легенды и байки и прочувствовать душу прекрасного Петербурга… Разве не так вы представляете себе идеальную экскурсию?
-У нас нет продуманного плана данного тура. Мы разрабатываем маршрут вместе с вами, исходя из ваших пожеланий, состава группы и множества других деталей. Все вопросы мы зададим в процессе бронирования, вы также сможете выбрать время и место начала экскурсии.</t>
-  </si>
-  <si>
     <t>Обсудим в переписке</t>
   </si>
   <si>
     <t>3 часа</t>
   </si>
   <si>
-    <t>5400₽
-За экскурсию для 1-4 чел., далее + 1300₽ с чел.</t>
-  </si>
-  <si>
     <t>Забронировать можно по ссылке https://peshehodtour.ru/spb/tour/individual'naya-obzornaya-excursia-po-Petersburgu</t>
   </si>
   <si>
     <t>Карта Петропавловской Крепости: квест для ребят 5-12 лет</t>
-  </si>
-  <si>
-    <t>В игровом формате в маленькой группе мы узнаем:
-о происхождении города и связанных с этим событием легенд
-почему остров называется Заячьим и почему именно здесь Петр основал свой град
-Почему крепость была основана в 1703 году, а на воротах написана совсем другая дата
-Какие правители оставили свой след (иногда забавный) в истории Крепости
-Что такой пушка и почему ее выстрел нужен петербуржцам
-Сколько зайцев живут в крепости
-Историю про самого главного Ангела Петербурга
-и многое другое!</t>
-  </si>
-  <si>
-    <t>воскресенье 11.00-12.10 дети 5-7 ле, 13.00-14.30 дети 8-12 лет</t>
-  </si>
-  <si>
-    <t>1.10-1.30 (зависит от возраста ребенка</t>
   </si>
   <si>
     <t>На территории Петропавловской крепости</t>
@@ -515,21 +342,6 @@
   </si>
   <si>
     <t>Тайны Петра и Петербурга: квест для детей 5-12 лет</t>
-  </si>
-  <si>
-    <t>Сколько тайн было у Петра? И не сосчитать!
-- почему он назвал город в свою честь (или нет?)
-- почему заложил в его основу трезубец Нептуна
-- какими ремеслами владел
-- как Петр связан с Исаакиевским собором
-- кто из его потомков посадил самый известный дуб в Петербурге
-- какой был размер ноги и одежды у последнего царя и первого императора
-- что за кораблик вертится на шпиле Адмиралтейства?
--почему Петр смотрит на город влюбленными глазами?
-и многие другие...</t>
-  </si>
-  <si>
-    <t>четверг 14.00-15.10 дети 5-7 ле, 16.00-17.30 дети 8-12 лет  суббота 11.00-12.10 дети 5-7 ле, 13.00-14.30 дети 8-12 лет</t>
   </si>
   <si>
     <t>У памятника Медный всадник</t>
@@ -579,6 +391,160 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>За 2 часа мы откроем тайны Дворцовой, Сенатской и Исаакиевской площадей, прогуляемся по «бульвару» Онегина и найдем место убийства Григория Распутина. Мы узнаем, что за дом хотели разыграть в лотерею, и почему «Медный всадник» смотрит на Петербург влюбленными глазами.\nЗакончим мы экскурсию у Новой Голландии, где вы сможете самостоятельно перекусить в локальных кафе. Если, конечно, не забоитесь, ведь построенный еще Петром I комплекс долгое время был тюрьмой!</t>
+  </si>
+  <si>
+    <t>800₽ для взрослых\n500₽ для детей до 12 лет</t>
+  </si>
+  <si>
+    <t>Как связаны Радищев и Кинчев, Гребенщиков и Достоевский, Пушкин и Довлатов? Все они выступали против культурных норм, созидая новое, и все они творили в Петербурге. Санкт-Петербург стал центром неформальной культуры с момента его основания и несет это звание до сих пор.\nЗа 2 часа нашей экскурсии мы изучим с вами природу культурного протеста, ощутим связь времен и найдем закутки, где занимались творчеством на протяжении 2 веков.</t>
+  </si>
+  <si>
+    <t>Среда, суббота 15:00-17:00</t>
+  </si>
+  <si>
+    <t>На улице у Кафе Пирожковая по адресу ул. Восстания, 1</t>
+  </si>
+  <si>
+    <t>Каменный остров впечатляет не только своим статусом. Пожалуй, это лучший музей под открытым небом, посвященный шедеврам усадебной архитектуры XIX-XX вв. Не верите? А если мы скажем, что именно на Каменном острове появилось ПЕРВОЕ в России здание в стиле модерн?\nСпрятанный от посторонних глаз, закрытый заборами и огороженный решетками, Каменный остров и по сей день полон загадок и тайн. Ведь некоторыми из особняков - шедевров архитектуры владеют очень известные личности. А аренду здания на Каменном острове не может потянуть даже посольство Дании!</t>
+  </si>
+  <si>
+    <t>Вторник, суббота 15:00-17:00</t>
+  </si>
+  <si>
+    <t>Автобусная остановки под названием Каменноостровский мост, на пересечении набережной реки Малой Невки и Каменноостровского проспекта. Ссылка на карту: https://goo.gl/maps/9QCrhQWhQEbaMNMo9 </t>
+  </si>
+  <si>
+    <t>На остановку ходят автобусы 46, 1, 25, троллейбус 34.\nБлижайшая станция метро - Черная речка (синяя ветка), от нее нужно пройти 10-15 минут пешком.\nЛегче всего добраться до места встречи на такси: 59.978723654494715, 30.29976093612008\nВесь Каменный остров находится в отделении от транспортных узлов, настолько он закрытый.</t>
+  </si>
+  <si>
+    <t>Васильевский остров – самый странный спальный район Петербурга. Ведь он строился как центр новой столицы, первый в Петербурге был обрамлен гранитом, принял дворцы новой знати и…должен был стать полностью водоходным. Вместо улиц так называемой «Васьки» Петр планировал сделать каналы, как в своем любимом Амстердаме.\nПрогуливаясь по пешеходным ныне линиям – бывшим каналам, пробираясь через разношерстные проходные дворы, мы узнаем, почему уже к XVIII веку Васильевский остров превратился в место обитания торговцев, профессуры, маргиналов и иностранцев, и стал первым спальным районом разрастающейся столицы.</t>
+  </si>
+  <si>
+    <t>Вторник, четверг, воскресенье 15:00-17:00</t>
+  </si>
+  <si>
+    <t>Памятник Василию Корчмину (в народе его прозвали Мюнгхаузеном). 7-я линия В.О., 34</t>
+  </si>
+  <si>
+    <t>Место встречи находится в трех минутах ходьбы от ст.м. Василеостровская.\nВам нужно выйти из метро и повернуть направо на пешеходную 6 и 7 линию В.О. Дойти по ней до кафе Market Place, прямо за ним притаился памятник Василию.\nДо памятника Василию вы можете добраться:\nа) На метро: до станции метро Василеостровская, зеленая ветка\nБ) На автобусах 1, 6, 7, 24, 230\nВ) На троллейбусах 1, 11</t>
+  </si>
+  <si>
+    <t>Стрелка Васильевского острова (гид сориентирует по транспорту)</t>
+  </si>
+  <si>
+    <t>Мы познакомим вас с историей Петербурга и поймем причины его особенного статуса среди городов России.\nВ компании гида-петербуржца вы научитесь ориентироваться в центре города и решите для себя, что вам еще было бы интересно посетить. А мы расскажем вам, как пройти без очереди в Эрмитаж и где недорого и атмосферно пообедать.\nВы узнаете историю и легенды всех главных достопримечательностях и найдете много скрытых, но любимых петербуржцами памятников.</t>
+  </si>
+  <si>
+    <t>Вторник, четверг, пятница, суббота, воскресенье 11:00-13:00</t>
+  </si>
+  <si>
+    <t>Малая Садовая улица, дом 3 — Фонтан «Шар» (Пересечение Невского проспекта и Малой Садовой улицы, ближайшее метро — «Гостиный Двор» и «Невский проспект»; 
+координаты для GPS: 59°56'03.3"N 30°20'14.6"E)</t>
+  </si>
+  <si>
+    <t> Место встречи находится в самом центре Санкт-Петербурга — на Невском проспекте.\nДо фонтана «Шар» вы можете добраться:\nа) На метро: до станции метро «Гостиный двор», «Невский проспект», выход к Гостиному Двору и Садовой улице\nб) На автобусах: 3, 7, 22, 24, 27, 191\nв) На троллейбусах: 1, 5, 10, 11, 22\nОстановка «Станция метро Гостиный двор» или «Дворец творчества юных (Аничков дворец)»</t>
+  </si>
+  <si>
+    <t>О Блокаде Ленинграда слышал каждый. Это самая долгая осада города за всю историю человечества, унесшая жизни миллионов солдат и мирных жителей. Она изменила историю и стала символом стойкости и смелости ленинградцев. Однако мы забываем, что жизнь в окруженном городе не замирала, наравне с поджидающей за углом смертью в Ленинграде оставалось время для смеха, чтения книг и даже...оказания парикмахерских услуг! О каждодневном, порой удивительном быте блокадного Ленинграда мы и расскажем на нашей экскурсии.\nЗа 2 часа неспешной прогулки по самому центру Петербурга вы узнаете о распорядке дня маленьких и взрослых ленинградцев, об обязательных ритуалах и обычных для них условиях жизни.</t>
+  </si>
+  <si>
+    <t>Среда, пятница, суббота, воскресенье 11:00-13:00</t>
+  </si>
+  <si>
+    <t>Памятник А.С. Пушкину в центре площади Искусств. Ближайшее метро - Невский проспект и Гостиный двор. GPS: 59.937278, 30.331652</t>
+  </si>
+  <si>
+    <t>Место встречи находится в самом центре Санкт-Петербурга — на площади Искусств перед Русским музеем.\nДо памятника А.С. Пушкину вы можете добраться:\nа) На метро: до станции метро «Гостиный двор», «Невский проспект»\nб) На автобусах: 3, 7, 22, 24, 27, 191\nв) На троллейбусах: 1, 5, 10, 11, 22\nОстановка Станция метро “Невский проспект” и “Казанский собор”</t>
+  </si>
+  <si>
+    <t>Вас и ваших детей ждет легкое игровое знакомство с Санкт-Петербургом и его историей. Через байки, анекдоты и загадки мы заложим базовые знания об истории Петербурга и расскажем об основных архитектурных стилях, достопримечательностях и самых важных личностях для нашего города и всей страны.\nЧто значит название «Санкт-Петербург»? Кто такой Петр Первый? Для чего построен наш город и почему Зимний Дворец так не похож на остальные здание Петербурга? Откуда взялись Эрмитажные коты и как Атланты могут исполнить желания? Где находится улица миллионеров и кто стал самым знаменитым полководцем в истории? В каком замке до сих пор бродят призраки и кто такие «Чижики-Пыжики»?</t>
+  </si>
+  <si>
+    <t>Среда, пятница, суббота 15:00-16:30, воскресенье 11:00-12:30</t>
+  </si>
+  <si>
+    <t>Дворцовая площадь, Александровская колонна</t>
+  </si>
+  <si>
+    <t>До Дворцовой площади вы можете добраться:\nА) На автобусах: 7, 24, 191 (остановка “Дворцовая площадь”)\nБ) На троллейбусах: 1, 7, 10, 11 (остановка “Дворцовая площадь”)\nВ) На метро: до ст.м. Адмиралтейская, далее 7 минут пешком</t>
+  </si>
+  <si>
+    <t>1300₽ для детей до 12 лет\n500₽ для взрослых</t>
+  </si>
+  <si>
+    <t>За 2,5 часа мы изучим прекрасный (и ужасный) район Коломны, увидим места, которые не без причины вдохновляли Гоголя и Достоевского. Разными органами чувств (вкусом, обонянием) мы приблизим себя к атмосфере рынка XIX века.\nМы найдем клоаку Петербурга и местных гаргулий, место, где видно 7 (или 8?) мостов, переулок, состоявший из одного кабака, здания, где раньше находились дома терпимости и биржи труда для самых бедных и дом, где совершилось самое страшное преступление в истории русской литературы.</t>
+  </si>
+  <si>
+    <t>Среда 11:00-13:30, пятница 18:00-20:30, воскресенье 15:00-17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выход со ст.м. «Спасская» (оранжевая ветка)</t>
+  </si>
+  <si>
+    <t>Добраться до места встречи можно:\nА) На метро до станций «Спасская» (оранжевая ветка), «Сенная» (синяя ветка), «Садовая» (фиолетовая ветка). Все три станции связаны подземным переходом, следуйте за указателями. Также с каждой станции можно подняться на Сенную площадь и дойти до места встречи поверху.\nБ) На автобусах 49, 50, 71, 181, 262 и трамвае 3 до остановок ст.м. «Сенная площадь» или «Сенная площадь»</t>
+  </si>
+  <si>
+    <t>850₽ для взрослых от 16 лет\n750₽ для пенсионеров</t>
+  </si>
+  <si>
+    <t>За 2,5 часа мы пройдем от \n"бурга\n" - города в стиле модерн с историями о богатых меценатах и ярких художниках, в \n"бурх\n" - город Петра I c его крепостью и даже домиком. Скачки во времени - из бурга в бурх - будут сопровождать всю нашу экскурсию. Скачки из богатства парадных дворов-курдонеров и образцовых особняков в обшарпанные черные лестницы и потаенные дворы-колодцы дополнят атмосферу двоякости.\nМы увидим Петербург парадный, стройный, холодный, и полубезумный петровский проект, в который не верил никто, кроме самого царя. А завершим мы нашу экскурсию у знаменитого крейсера \n"Аврора\n", символа Ленинграда, до него редко доходят пешеходные экскурсии. Чем не еще один скачок в \n"град\n" из \n"бурга\n" и \n"бурха\n"? Вы с нами?</t>
+  </si>
+  <si>
+    <t>Понедельник, четверг, суббота 11:00-13:30</t>
+  </si>
+  <si>
+    <t>Ст.м. Петроградская, у памятника А.С. Попову  (59.967933, 30.310639)</t>
+  </si>
+  <si>
+    <t>Ближайшая станция метро - Петроградская (синяя ветка), от нее нужно пройти 5-7 минут пешком, повернув направо и пройдя чуть дальше McDonalds - в центре сквера за рестораном и стоит памятник А.Попову. Ссылка на карту: https://goo.gl/maps/H2ZVcpAgM88xBfwW9 </t>
+  </si>
+  <si>
+    <t>На территории Петропавловской крепости мы найдем и посетим необычные музеи, копию знаменитого ботика Петра Первого, Монетный двор, самые необычные памятники Петербурга. Мы сможем взобраться на бастионы первой крепости России, построенной по западным правилам, и, возможно, услышим знаменитый залп пушки, который извещает жителей города о наступлении полудня. Мы загадаем желания у нескольких зайцев и выпросим богатства у скульптуры Петра.\nОсобенно впечатлит вас удивительный вид, открывающийся на самую широкий участок Невы с пляжа Петропавловской крепости.</t>
+  </si>
+  <si>
+    <t>Добраться до места встречи вы можете:\n— на метро до ст.м. «Горьковская» (синяя ветка). После выхода из метро вы поворачиваете направо и идёте по Александровскому парку вплоть до Бургер Кинга. Прямо за ним — Иоанновский мост. Дорога от метро до моста занимает 4 минуты.\n— на автобусах: 28, 46\n— на такси: Кронверкская набережная, 3 (это заправка Роснефти, прямо напротив — мост)</t>
+  </si>
+  <si>
+    <t>5400₽ за экскурсию для 1-3 чел., далее: + 1000₽ с чел.\n+400₽/ 250₽ ваучеры на проход в каждый музей</t>
+  </si>
+  <si>
+    <t>5400₽ для группы 2-4 человека\nВходные билеты для себя и гида вы приобретаете самостоятельно! Мы расскажем, как это лучше сделать</t>
+  </si>
+  <si>
+    <t>Мы предлагаем вам открыть Русский музей как сундучок с сокровищами: легко, вспоминая былины, детские сказки и даже частушки, через образы, с помощью диалога и конечно же юмора!\nМы построим маршрут по музею, исходя из ваших пожеланий, ведь если одни Гости хотят получить первое впечатление о Музее, других может интересовать искусство начала XX века или иконопись.\nМы учтем все ваши желания и создадим новый тур специально для вас. Поэтому экскурсия понравится и взрослым, и детям от 5 лет.</t>
+  </si>
+  <si>
+    <t>Памятник А.С. Пушкину в центре площади Искусств. Ближайшее метро - “Невский проспект” и “Гостиный двор”. GPS: 59.937278, 30.331652</t>
+  </si>
+  <si>
+    <t>Пройтись по тайным улочкам в компании местного жителя и неожиданно выйти к самым открыточным достопримечательностям города, перекусить в знаменитой Пышечной, узнать легенды и байки и прочувствовать душу прекрасного Петербурга… Разве не так вы представляете себе идеальную экскурсию?\nУ нас нет продуманного плана данного тура. Мы разрабатываем маршрут вместе с вами, исходя из ваших пожеланий, состава группы и множества других деталей. Все вопросы мы зададим в процессе бронирования, вы также сможете выбрать время и место начала экскурсии.</t>
+  </si>
+  <si>
+    <t>5400₽ за экскурсию для 1-4 чел., далее + 1300₽ с чел.</t>
+  </si>
+  <si>
+    <t>В игровом формате в маленькой группе мы узнаем:\nо происхождении города и связанных с этим событием легенд\nпочему остров называется Заячьим и почему именно здесь Петр основал свой град\nПочему крепость была основана в 1703 году, а на воротах написана совсем другая дата\nКакие правители оставили свой след (иногда забавный) в истории Крепости\nЧто такой пушка и почему ее выстрел нужен петербуржцам\nСколько зайцев живут в крепости\nИсторию про самого главного Ангела Петербурга\nи многое другое!</t>
+  </si>
+  <si>
+    <t>Воскресенье 11:00-12:10 дети 5-7 лет, 13:00-14:30 дети 8-12 лет</t>
+  </si>
+  <si>
+    <t>1:10-1:30 (зависит от возраста ребенка)</t>
+  </si>
+  <si>
+    <t>1600₽ для детей\n400₽ для взрослых</t>
+  </si>
+  <si>
+    <t>Сколько тайн было у Петра? И не сосчитать!\n- почему он назвал город в свою честь (или нет?)\n- почему заложил в его основу трезубец Нептуна\n- какими ремеслами владел\n- как Петр связан с Исаакиевским собором\n- кто из его потомков посадил самый известный дуб в Петербурге\n- какой был размер ноги и одежды у последнего царя и первого императора\n- что за кораблик вертится на шпиле Адмиралтейства?\n-почему Петр смотрит на город влюбленными глазами?\nи многие другие...</t>
+  </si>
+  <si>
+    <t>Четверг 14:00-15:10 дети 5-7 лет, 16:00-17:30 дети 8-12 лет;  суббота 11:00-12:10 дети 5-7 лет, 13:00-14:30 дети 8-12 лет</t>
+  </si>
+  <si>
+    <t>а)На метро до ст.м. Адмиралтейская, далее 7 минут пешком\nОт выхода из метро поворачиваете налево и идете по Малой Морской улице от Невского проспекта до первого перекрестка. Поворачиваете направо на Гороховую улицу.В торце улицы вы сразу видите фонтан у Адмиралтейства и сам шпиль.\nВсеми автобусами и троллейбусами, которые идут по Невскому проспекту:\nб) 1 троллейбус, 7 автобус, 7 троллейбус, 10 троллейбус, 11 троллейбус, 24 автобус, 191 автобус - до остановки Дворцовая площадь.\nЕсли едете из центра, то переходите дорогу (переход прямо около моста), и идете налево, огибая Адмиралтейство. Заходите в Александровский сад и идете по нему вдоль здания 1 минуту до большого круглого фонтана\nЕсли едете с Васильевского острова, то вам нужно не нужно переходить дорогу и идти, огибая Адмиралтейство\nв) 3 автобус, 5 троллейбус, 22 троллейбус, 27 автобус - до остановки ст.м. Адмиралтейская\nПроходите чуть дальше вдоль движения транспорта и заворачиваете направо на первом перекрестке на Гороховую улицу. В торце улицы вы сразу видите фонтан у Адмиралтейства и сам шпиль.</t>
   </si>
 </sst>
 </file>
@@ -900,11 +866,11 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,22 +925,22 @@
     </row>
     <row r="2" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -983,16 +949,16 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
@@ -1012,7 +978,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -1035,559 +1001,559 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="346.5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="378" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="283.5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="362.25" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="378" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">

--- a/туры для телеграм.xlsx
+++ b/туры для телеграм.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\telegram_bot_peshehod_chat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tropin\telegram_bot_peshehod_chat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="150">
   <si>
     <t>название</t>
   </si>
@@ -105,10 +105,6 @@
   </si>
   <si>
     <t>От мифов к истории - удивительные истории Петербурга</t>
-  </si>
-  <si>
-    <t>За 2 часа мы откроем тайны Дворцовой, Сенатской и Исаакиевской площадей, прогуляемся по «бульвару» Онегина и найдем место убийства Григория Распутина. Мы узнаем, что за дом хотели разыграть в лотерею, и почему «Медный всадник» смотрит на Петербург влюбленными глазами. 
-Закончим мы экскурсию у Новой Голландии, где вы сможете самостоятельно перекусить в локальных кафе. Если, конечно, не забоитесь, ведь построенный еще Петром I комплекс долгое время был тюрьмой!</t>
   </si>
   <si>
     <t>Понедельник, среда, пятница, воскресенье 15.00-17.00</t>
@@ -173,16 +169,6 @@
     <t>Я всегда буду против: неформальный Петербург</t>
   </si>
   <si>
-    <t>Как связаны Радищев и Кинчев, Гребенщиков и Достоевский, Пушкин и Довлатов? Все они выступали против культурных норм, созидая новое, и все они творили в Петербурге. Санкт-Петербург стал центром неформальной культуры с момента его основания и несет это звание до сих пор.
-За 2 часа нашей экскурсии мы изучим с вами природу культурного протеста, ощутим связь времен и найдем закутки, где занимались творчеством на протяжении 2 веков.</t>
-  </si>
-  <si>
-    <t>среда, суббота 15.00-17.00</t>
-  </si>
-  <si>
-    <t>на улице у Кафе "Пирожковая" по адресу ул.Восстания, 1.</t>
-  </si>
-  <si>
     <t> а) На метро: кафе находится прямо у выхода со ст.м."Площадь Восстания" (красная ветка, выход на Невский проспект и ул.Восстания). Вам нужно выйти из метро и повернуть направо - через 20 метров будет "Пирожковая"
  б) На наземном транспорте до остановки "Площадь Восстания"
  в) На такси по адресу ул.Восстания, 1 (59°55'54.9"N 30°21'40.0"E)</t>
@@ -197,23 +183,6 @@
     <t>Каменный остров: добро пожаловать избранным или посторонним вход запрещен</t>
   </si>
   <si>
-    <t>Каменный остров впечатляет не только своим статусом. Пожалуй, это лучший музей под открытым небом, посвященный шедеврам усадебной архитектуры XIX-XX вв. Не верите? А если мы скажем, что именно на Каменном острове появилось ПЕРВОЕ в России здание в стиле модерн?
-Спрятанный от посторонних глаз, закрытый заборами и огороженный решетками, Каменный остров и по сей день полон загадок и тайн. Ведь некоторыми из особняков - шедевров архитектуры владеют очень известные личности. А аренду здания на Каменном острове не может потянуть даже посольство Дании!</t>
-  </si>
-  <si>
-    <t>вторник, суббота 15.00-17.00</t>
-  </si>
-  <si>
-    <t>автобусная остановки под названием "Каменноостровский мост", на пересечении набережной реки Малой Невки и Каменноостровского проспекта.*
-Ссылка на карту: https://goo.gl/maps/9QCrhQWhQEbaMNMo9 </t>
-  </si>
-  <si>
-    <t>*На остановку ходят автобусы 46, 1, 25, троллейбус 34.
-Ближайшая станция метро - "Черная речка" (синяя ветка), от нее нужно пройти 10-15 минут пешком.
-Легче всего добраться до места встречи на такси: 59.978723654494715, 30.29976093612008
-Весь Каменный остров находится в отделении от транспортных узлов, настолько он закрытый.</t>
-  </si>
-  <si>
     <t>Санкт-Петербург, набережная реки Малой Невки</t>
   </si>
   <si>
@@ -223,53 +192,12 @@
     <t>С материка на Ваську – дворы Петербурга</t>
   </si>
   <si>
-    <t>Васильевский остров – самый странный спальный район Петербурга. Ведь он строился как центр новой столицы, первый в Петербурге был обрамлен гранитом, принял дворцы новой знати и…должен был стать полностью водоходным. Вместо улиц так называемой «Васьки» Петр планировал сделать каналы, как в своем любимом Амстердаме.
-Прогуливаясь по пешеходным ныне линиям – бывшим каналам, пробираясь через разношерстные проходные дворы, мы узнаем, почему уже к XVIII веку Васильевский остров превратился в место обитания торговцев, профессуры, маргиналов и иностранцев, и стал первым спальным районом разрастающейся столицы.</t>
-  </si>
-  <si>
-    <t>вторник, четверг, воскресенье 15.00-17.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">памятник Василию Корчмину (в народе его прозвали Мюнгхаузеном). 7-я линия В.О., 34. </t>
-  </si>
-  <si>
-    <t>Место встречи находится в трех минутах ходьбы от ст.м. Василеостровская.
-Вам нужно выйти из метро и повернуть направо на пешеходную 6 и 7 линию В.О. Дойти по ней до кафе Market Place, прямо за ним притаился памятник Василию.
- До памятника Василию вы можете добраться:
-а) На метро: до станции метро "Василеостровская”, зеленая ветка 
-Б) На автобусах 7,24
-В) На троллейбусах 1, 11</t>
-  </si>
-  <si>
-    <t>стрелка Васильевского острова (гид сориентирует по транспорту)</t>
-  </si>
-  <si>
     <t>Забронировать можно на сайте https://peshehodtour.ru/spb/tour/excursia-dvory-Vasil'evslogo-ostrova</t>
   </si>
   <si>
     <t>Обзорная экскурсия «Гуляй как петербуржец!»</t>
   </si>
   <si>
-    <t>Мы познакомим вас с историей Петербурга и поймем причины его особенного статуса среди городов России.
-В компании гида-петербуржца вы научитесь ориентироваться в центре города и решите для себя, что вам еще было бы интересно посетить. А мы расскажем вам, как пройти без очереди в Эрмитаж и где недорого и атмосферно пообедать.
-Вы узнаете историю и легенды всех главных достопримечательностях и найдете много скрытых, но любимых петербуржцами памятников.</t>
-  </si>
-  <si>
-    <t>вторник,четверг,пятница, суббота, воскресенье 11.00-13.00</t>
-  </si>
-  <si>
-    <t>Малая Садовая улица, дом 3 — Фонтан «Шар» (Пересечение Невского проспекта и Малой Садовой улицы, ближайшее метро — «Гостиный Двор» и «Невский проспект»; 
-координаты для GPS: 59°56'03.3"N 30°20'14.6"E)*</t>
-  </si>
-  <si>
-    <t> *Место встречи находится в самом центре Санкт-Петербурга — на Невском проспекте.
- До фонтана «Шар» вы можете добраться:
- а) На метро: до станции метро «Гостиный двор», «Невский проспект», выход к Гостиному Двору и Садовой улице
- б) На автобусах: 3, 7, 22, 24, 27, 191
- в) На троллейбусах: 1, 5, 10, 11, 22
- Остановка «Станция метро Гостиный двор» или «Дворец творчества юных (Аничков дворец)»</t>
-  </si>
-  <si>
     <t>Зимняя канавка (рядом с Эрмитажем, ближайшее метро «Адмиралтейская»)</t>
   </si>
   <si>
@@ -277,13 +205,6 @@
   </si>
   <si>
     <t>Как они выжили: быт блокадного Ленинграда</t>
-  </si>
-  <si>
-    <t>О Блокаде Ленинграда слышал каждый. Это самая долгая осада города за всю историю человечества, унесшая жизни миллионов солдат и мирных жителей. Она изменила историю и стала символом стойкости и смелости ленинградцев. Однако мы забываем, что жизнь в окруженном городе не замирала, наравне с поджидающей за углом смертью в Ленинграде оставалось время для смеха, чтения книг и даже...оказания парикмахерских услуг! О каждодневном, порой удивительном быте блокадного Ленинграда мы и расскажем на нашей экскурсии.
-За 2 часа неспешной прогулки по самому центру Петербурга вы узнаете о распорядке дня маленьких и взрослых ленинградцев, об обязательных ритуалах и обычных для них условиях жизни.</t>
-  </si>
-  <si>
-    <t>Среда, пятница, суббота, воскресенье 11.00-13.00</t>
   </si>
   <si>
     <t>памятник А.С.Пушкину в центре площади Искусств. Ближайшее метро - “Невский проспект” и “Гостиный двор”. GPS: 59.937278, 30.331652</t>
@@ -312,13 +233,6 @@
     <t>Открыть Петербург детям! Обзорная экскурсия</t>
   </si>
   <si>
-    <t>Вас и ваших детей ждет легкое игровое знакомство с Санкт-Петербургом и его историей. Через байки, анекдоты и загадки мы заложим базовые знания об истории Петербурга и расскажем об основных архитектурных стилях, достопримечательностях и самых важных личностях для нашего города и всей страны.
-Что значит название «Санкт-Петербург»? Кто такой Петр Первый? Для чего построен наш город и почему Зимний Дворец так не похож на остальные здание Петербурга? Откуда взялись Эрмитажные коты и как Атланты могут исполнить желания? Где находится улица миллионеров и кто стал самым знаменитым полководцем в истории? В каком замке до сих пор бродят призраки и кто такие «Чижики-Пыжики»?</t>
-  </si>
-  <si>
-    <t>Среда, пятница,суббота 15.00-16.30, воскресенье 11.00-12.30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Дворцовая площадь, Александровская колонна. </t>
   </si>
   <si>
@@ -332,12 +246,6 @@
   </si>
   <si>
     <t>Марсово поле или Инженерный замок в зависимости от погоды</t>
-  </si>
-  <si>
-    <t>1300₽
-Для детей до 12 лет
-500₽
-Для взрослых</t>
   </si>
   <si>
     <t>Забронировать экскурсию можно по ссылке https://peshehodtour.ru/spb/tour/detskaya-excursia-po-peterburgu</t>
@@ -579,6 +487,88 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>За 2 часа мы откроем тайны Дворцовой, Сенатской и Исаакиевской площадей, прогуляемся по «бульвару» Онегина и найдем место убийства Григория Распутина. Мы узнаем, что за дом хотели разыграть в лотерею, и почему «Медный всадник» смотрит на Петербург влюбленными глазами.\nЗакончим мы экскурсию у Новой Голландии, где вы сможете самостоятельно перекусить в локальных кафе. Если, конечно, не забоитесь, ведь построенный еще Петром I комплекс долгое время был тюрьмой!</t>
+  </si>
+  <si>
+    <t>800₽ для взрослых\n500₽ для детей до 12 лет</t>
+  </si>
+  <si>
+    <t>Как связаны Радищев и Кинчев, Гребенщиков и Достоевский, Пушкин и Довлатов? Все они выступали против культурных норм, созидая новое, и все они творили в Петербурге. Санкт-Петербург стал центром неформальной культуры с момента его основания и несет это звание до сих пор.\nЗа 2 часа нашей экскурсии мы изучим с вами природу культурного протеста, ощутим связь времен и найдем закутки, где занимались творчеством на протяжении 2 веков.</t>
+  </si>
+  <si>
+    <t>Среда, суббота 15:00-17:00</t>
+  </si>
+  <si>
+    <t>На улице у Кафе Пирожковая по адресу ул. Восстания, 1</t>
+  </si>
+  <si>
+    <t>Каменный остров впечатляет не только своим статусом. Пожалуй, это лучший музей под открытым небом, посвященный шедеврам усадебной архитектуры XIX-XX вв. Не верите? А если мы скажем, что именно на Каменном острове появилось ПЕРВОЕ в России здание в стиле модерн?\nСпрятанный от посторонних глаз, закрытый заборами и огороженный решетками, Каменный остров и по сей день полон загадок и тайн. Ведь некоторыми из особняков - шедевров архитектуры владеют очень известные личности. А аренду здания на Каменном острове не может потянуть даже посольство Дании!</t>
+  </si>
+  <si>
+    <t>Вторник, суббота 15:00-17:00</t>
+  </si>
+  <si>
+    <t>Автобусная остановки под названием Каменноостровский мост, на пересечении набережной реки Малой Невки и Каменноостровского проспекта. Ссылка на карту: https://goo.gl/maps/9QCrhQWhQEbaMNMo9 </t>
+  </si>
+  <si>
+    <t>На остановку ходят автобусы 46, 1, 25, троллейбус 34.\nБлижайшая станция метро - Черная речка (синяя ветка), от нее нужно пройти 10-15 минут пешком.\nЛегче всего добраться до места встречи на такси: 59.978723654494715, 30.29976093612008\nВесь Каменный остров находится в отделении от транспортных узлов, настолько он закрытый.</t>
+  </si>
+  <si>
+    <t>Васильевский остров – самый странный спальный район Петербурга. Ведь он строился как центр новой столицы, первый в Петербурге был обрамлен гранитом, принял дворцы новой знати и…должен был стать полностью водоходным. Вместо улиц так называемой «Васьки» Петр планировал сделать каналы, как в своем любимом Амстердаме.\nПрогуливаясь по пешеходным ныне линиям – бывшим каналам, пробираясь через разношерстные проходные дворы, мы узнаем, почему уже к XVIII веку Васильевский остров превратился в место обитания торговцев, профессуры, маргиналов и иностранцев, и стал первым спальным районом разрастающейся столицы.</t>
+  </si>
+  <si>
+    <t>Вторник, четверг, воскресенье 15:00-17:00</t>
+  </si>
+  <si>
+    <t>Памятник Василию Корчмину (в народе его прозвали Мюнгхаузеном). 7-я линия В.О., 34</t>
+  </si>
+  <si>
+    <t>Место встречи находится в трех минутах ходьбы от ст.м. Василеостровская.\nВам нужно выйти из метро и повернуть направо на пешеходную 6 и 7 линию В.О. Дойти по ней до кафе Market Place, прямо за ним притаился памятник Василию.\nДо памятника Василию вы можете добраться:\nа) На метро: до станции метро Василеостровская, зеленая ветка\nБ) На автобусах 1, 6, 7, 24, 230\nВ) На троллейбусах 1, 11</t>
+  </si>
+  <si>
+    <t>Стрелка Васильевского острова (гид сориентирует по транспорту)</t>
+  </si>
+  <si>
+    <t>Мы познакомим вас с историей Петербурга и поймем причины его особенного статуса среди городов России.\nВ компании гида-петербуржца вы научитесь ориентироваться в центре города и решите для себя, что вам еще было бы интересно посетить. А мы расскажем вам, как пройти без очереди в Эрмитаж и где недорого и атмосферно пообедать.\nВы узнаете историю и легенды всех главных достопримечательностях и найдете много скрытых, но любимых петербуржцами памятников.</t>
+  </si>
+  <si>
+    <t>Вторник, четверг, пятница, суббота, воскресенье 11:00-13:00</t>
+  </si>
+  <si>
+    <t>Малая Садовая улица, дом 3 — Фонтан «Шар» (Пересечение Невского проспекта и Малой Садовой улицы, ближайшее метро — «Гостиный Двор» и «Невский проспект»; 
+координаты для GPS: 59°56'03.3"N 30°20'14.6"E)</t>
+  </si>
+  <si>
+    <t> Место встречи находится в самом центре Санкт-Петербурга — на Невском проспекте.\nДо фонтана «Шар» вы можете добраться:\nа) На метро: до станции метро «Гостиный двор», «Невский проспект», выход к Гостиному Двору и Садовой улице\nб) На автобусах: 3, 7, 22, 24, 27, 191\nв) На троллейбусах: 1, 5, 10, 11, 22\nОстановка «Станция метро Гостиный двор» или «Дворец творчества юных (Аничков дворец)»</t>
+  </si>
+  <si>
+    <t>О Блокаде Ленинграда слышал каждый. Это самая долгая осада города за всю историю человечества, унесшая жизни миллионов солдат и мирных жителей. Она изменила историю и стала символом стойкости и смелости ленинградцев. Однако мы забываем, что жизнь в окруженном городе не замирала, наравне с поджидающей за углом смертью в Ленинграде оставалось время для смеха, чтения книг и даже...оказания парикмахерских услуг! О каждодневном, порой удивительном быте блокадного Ленинграда мы и расскажем на нашей экскурсии.\nЗа 2 часа неспешной прогулки по самому центру Петербурга вы узнаете о распорядке дня маленьких и взрослых ленинградцев, об обязательных ритуалах и обычных для них условиях жизни.</t>
+  </si>
+  <si>
+    <t>Среда, пятница, суббота, воскресенье 11:00-13:00</t>
+  </si>
+  <si>
+    <t>Памятник А.С. Пушкину в центре площади Искусств. Ближайшее метро - Невский проспект и Гостиный двор. GPS: 59.937278, 30.331652</t>
+  </si>
+  <si>
+    <t>Место встречи находится в самом центре Санкт-Петербурга — на площади Искусств перед Русским музеем.\nДо памятника А.С. Пушкину вы можете добраться:\nа) На метро: до станции метро «Гостиный двор», «Невский проспект»\nб) На автобусах: 3, 7, 22, 24, 27, 191\nв) На троллейбусах: 1, 5, 10, 11, 22\nОстановка Станция метро “Невский проспект” и “Казанский собор”</t>
+  </si>
+  <si>
+    <t>Вас и ваших детей ждет легкое игровое знакомство с Санкт-Петербургом и его историей. Через байки, анекдоты и загадки мы заложим базовые знания об истории Петербурга и расскажем об основных архитектурных стилях, достопримечательностях и самых важных личностях для нашего города и всей страны.\nЧто значит название «Санкт-Петербург»? Кто такой Петр Первый? Для чего построен наш город и почему Зимний Дворец так не похож на остальные здание Петербурга? Откуда взялись Эрмитажные коты и как Атланты могут исполнить желания? Где находится улица миллионеров и кто стал самым знаменитым полководцем в истории? В каком замке до сих пор бродят призраки и кто такие «Чижики-Пыжики»?</t>
+  </si>
+  <si>
+    <t>Среда, пятница, суббота 15:00-16:30, воскресенье 11:00-12:30</t>
+  </si>
+  <si>
+    <t>Дворцовая площадь, Александровская колонна</t>
+  </si>
+  <si>
+    <t>До Дворцовой площади вы можете добраться:\nА) На автобусах: 7, 24, 191 (остановка “Дворцовая площадь”)\nБ) На троллейбусах: 1, 7, 10, 11 (остановка “Дворцовая площадь”)\nВ) На метро: до ст.м. Адмиралтейская, далее 7 минут пешком</t>
+  </si>
+  <si>
+    <t>1300₽ для детей до 12 лет\n500₽ для взрослых</t>
   </si>
 </sst>
 </file>
@@ -900,11 +890,11 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,22 +949,22 @@
     </row>
     <row r="2" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -983,16 +973,16 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
@@ -1012,7 +1002,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -1035,559 +1025,559 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="346.5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="378" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
